--- a/analises/2023/analise_descritiva/dados/flex-mencoes.xlsx
+++ b/analises/2023/analise_descritiva/dados/flex-mencoes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>modalidade</t>
   </si>
@@ -37,25 +37,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -490,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,11 +524,17 @@
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -559,13 +583,31 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>104</v>
@@ -595,27 +637,45 @@
         <v>442290.1113560894</v>
       </c>
       <c r="L2" s="3">
-        <v>100.9425353902489</v>
-      </c>
-      <c r="M2" s="1">
+        <v>76.06649705332148</v>
+      </c>
+      <c r="M2" s="3">
+        <v>30.35289755311455</v>
+      </c>
+      <c r="N2" s="3">
+        <v>30.69891629110986</v>
+      </c>
+      <c r="O2" s="3">
+        <v>216.9152091005833</v>
+      </c>
+      <c r="P2" s="1">
         <v>22989</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>221.0480769230769</v>
       </c>
-      <c r="O2">
+      <c r="R2" s="1">
+        <v>410.5455139511234</v>
+      </c>
+      <c r="S2" s="1">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1">
+        <v>3474</v>
+      </c>
+      <c r="U2">
         <v>2017</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>175</v>
@@ -645,27 +705,45 @@
         <v>121747.7984910872</v>
       </c>
       <c r="L3" s="3">
-        <v>92.24386350483199</v>
-      </c>
-      <c r="M3" s="1">
+        <v>82.12933179093685</v>
+      </c>
+      <c r="M3" s="3">
+        <v>35.40469491555042</v>
+      </c>
+      <c r="N3" s="3">
+        <v>33.97203328414528</v>
+      </c>
+      <c r="O3" s="3">
+        <v>230.5829516876651</v>
+      </c>
+      <c r="P3" s="1">
         <v>26122</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>149.2685714285714</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="1">
+        <v>174.8393084425899</v>
+      </c>
+      <c r="S3" s="1">
+        <v>6</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1540</v>
+      </c>
+      <c r="U3">
         <v>2016</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>568</v>
@@ -695,27 +773,45 @@
         <v>133707.589878108</v>
       </c>
       <c r="L4" s="3">
-        <v>99.16759340131101</v>
-      </c>
-      <c r="M4" s="1">
+        <v>84.02563974325884</v>
+      </c>
+      <c r="M4" s="3">
+        <v>39.83943189124467</v>
+      </c>
+      <c r="N4" s="3">
+        <v>11.52676430516467</v>
+      </c>
+      <c r="O4" s="3">
+        <v>254.2443749773306</v>
+      </c>
+      <c r="P4" s="1">
         <v>77527</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4" s="1">
         <v>141.9908424908425</v>
       </c>
-      <c r="O4">
+      <c r="R4" s="1">
+        <v>155.4234048603088</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1330</v>
+      </c>
+      <c r="U4">
         <v>2016</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>207</v>
@@ -745,27 +841,45 @@
         <v>200069.5140664897</v>
       </c>
       <c r="L5" s="3">
-        <v>92.47271837489988</v>
-      </c>
-      <c r="M5" s="1">
+        <v>83.58617223970138</v>
+      </c>
+      <c r="M5" s="3">
+        <v>40.20112754081283</v>
+      </c>
+      <c r="N5" s="3">
+        <v>16.05922078302265</v>
+      </c>
+      <c r="O5" s="3">
+        <v>386.987447085286</v>
+      </c>
+      <c r="P5" s="1">
         <v>35001</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>171.5735294117647</v>
       </c>
-      <c r="O5">
+      <c r="R5" s="1">
+        <v>248.1423584049538</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2120</v>
+      </c>
+      <c r="U5">
         <v>2016</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>326</v>
@@ -795,27 +909,45 @@
         <v>708972.7845446636</v>
       </c>
       <c r="L6" s="3">
-        <v>91.95990423942952</v>
-      </c>
-      <c r="M6" s="1">
+        <v>83.40563308192627</v>
+      </c>
+      <c r="M6" s="3">
+        <v>32.56399533953332</v>
+      </c>
+      <c r="N6" s="3">
+        <v>18.47818326605706</v>
+      </c>
+      <c r="O6" s="3">
+        <v>195.20880750356</v>
+      </c>
+      <c r="P6" s="1">
         <v>62425</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>196.3050314465409</v>
       </c>
-      <c r="O6">
+      <c r="R6" s="1">
+        <v>501.9791222296157</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>7954</v>
+      </c>
+      <c r="U6">
         <v>2016</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>352</v>
@@ -845,27 +977,45 @@
         <v>708972.7845446636</v>
       </c>
       <c r="L7" s="3">
-        <v>91.47778329877478</v>
-      </c>
-      <c r="M7" s="1">
+        <v>77.97569054482099</v>
+      </c>
+      <c r="M7" s="3">
+        <v>35.65744130420693</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10.77163914429046</v>
+      </c>
+      <c r="O7" s="3">
+        <v>195.6882025465182</v>
+      </c>
+      <c r="P7" s="1">
         <v>57812</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>171.0414201183432</v>
       </c>
-      <c r="O7">
+      <c r="R7" s="1">
+        <v>459.3640728169867</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>7954</v>
+      </c>
+      <c r="U7">
         <v>2016</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>147</v>
@@ -895,27 +1045,45 @@
         <v>708972.7845446636</v>
       </c>
       <c r="L8" s="3">
-        <v>94.08839711265563</v>
-      </c>
-      <c r="M8" s="1">
+        <v>77.73968420752422</v>
+      </c>
+      <c r="M8" s="3">
+        <v>41.30988410144955</v>
+      </c>
+      <c r="N8" s="3">
+        <v>12.19662302883409</v>
+      </c>
+      <c r="O8" s="3">
+        <v>247.2901437851162</v>
+      </c>
+      <c r="P8" s="1">
         <v>28881</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>203.387323943662</v>
       </c>
-      <c r="O8">
+      <c r="R8" s="1">
+        <v>685.9026443808731</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2</v>
+      </c>
+      <c r="T8" s="1">
+        <v>7954</v>
+      </c>
+      <c r="U8">
         <v>2016</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>291</v>
@@ -945,27 +1113,45 @@
         <v>708972.7845446636</v>
       </c>
       <c r="L9" s="3">
-        <v>95.69895606541161</v>
-      </c>
-      <c r="M9" s="1">
+        <v>81.75853347173708</v>
+      </c>
+      <c r="M9" s="3">
+        <v>38.14520603080047</v>
+      </c>
+      <c r="N9" s="3">
+        <v>18.47818326605706</v>
+      </c>
+      <c r="O9" s="3">
+        <v>234.707661751482</v>
+      </c>
+      <c r="P9" s="1">
         <v>53156</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
         <v>186.5122807017544</v>
       </c>
-      <c r="O9">
+      <c r="R9" s="1">
+        <v>508.76757749687</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>7954</v>
+      </c>
+      <c r="U9">
         <v>2016</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>354</v>
@@ -995,27 +1181,45 @@
         <v>203551.2237166158</v>
       </c>
       <c r="L10" s="3">
-        <v>97.12764057113438</v>
-      </c>
-      <c r="M10" s="1">
+        <v>82.92407682444032</v>
+      </c>
+      <c r="M10" s="3">
+        <v>38.77988334228132</v>
+      </c>
+      <c r="N10" s="3">
+        <v>11.93343625774652</v>
+      </c>
+      <c r="O10" s="3">
+        <v>230.5829516876651</v>
+      </c>
+      <c r="P10" s="1">
         <v>56601</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10" s="1">
         <v>165.0174927113703</v>
       </c>
-      <c r="O10">
+      <c r="R10" s="1">
+        <v>247.246130032236</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2684</v>
+      </c>
+      <c r="U10">
         <v>2016</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>168</v>
@@ -1045,27 +1249,45 @@
         <v>442290.1113560894</v>
       </c>
       <c r="L11" s="3">
-        <v>92.06346317438916</v>
-      </c>
-      <c r="M11" s="1">
+        <v>71.78666858221021</v>
+      </c>
+      <c r="M11" s="3">
+        <v>29.97870848948209</v>
+      </c>
+      <c r="N11" s="3">
+        <v>16.18065842403185</v>
+      </c>
+      <c r="O11" s="3">
+        <v>216.9152091005833</v>
+      </c>
+      <c r="P11" s="1">
         <v>29915</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11" s="1">
         <v>178.0654761904762</v>
       </c>
-      <c r="O11">
+      <c r="R11" s="1">
+        <v>331.1306730481258</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3474</v>
+      </c>
+      <c r="U11">
         <v>2016</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>168</v>
@@ -1095,27 +1317,45 @@
         <v>442290.1113560894</v>
       </c>
       <c r="L12" s="3">
-        <v>92.06346317438916</v>
-      </c>
-      <c r="M12" s="1">
+        <v>71.78666858221021</v>
+      </c>
+      <c r="M12" s="3">
+        <v>29.97870848948209</v>
+      </c>
+      <c r="N12" s="3">
+        <v>16.18065842403185</v>
+      </c>
+      <c r="O12" s="3">
+        <v>216.9152091005833</v>
+      </c>
+      <c r="P12" s="1">
         <v>29915</v>
       </c>
-      <c r="N12" s="1">
+      <c r="Q12" s="1">
         <v>178.0654761904762</v>
       </c>
-      <c r="O12">
+      <c r="R12" s="1">
+        <v>331.1306730481258</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>3474</v>
+      </c>
+      <c r="U12">
         <v>2016</v>
       </c>
-      <c r="P12">
+      <c r="V12">
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>321</v>
@@ -1145,27 +1385,45 @@
         <v>475290.9541363961</v>
       </c>
       <c r="L13" s="3">
-        <v>88.85439072913162</v>
-      </c>
-      <c r="M13" s="1">
+        <v>79.12786981308152</v>
+      </c>
+      <c r="M13" s="3">
+        <v>35.35639160943987</v>
+      </c>
+      <c r="N13" s="3">
+        <v>20.51363271354002</v>
+      </c>
+      <c r="O13" s="3">
+        <v>233.3973531230909</v>
+      </c>
+      <c r="P13" s="1">
         <v>52310</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13" s="1">
         <v>166.0634920634921</v>
       </c>
-      <c r="O13">
+      <c r="R13" s="1">
+        <v>328.5928536530323</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>4584</v>
+      </c>
+      <c r="U13">
         <v>2016</v>
       </c>
-      <c r="P13">
+      <c r="V13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>135</v>
@@ -1195,27 +1453,45 @@
         <v>103442.8700368614</v>
       </c>
       <c r="L14" s="3">
-        <v>98.94667271041796</v>
-      </c>
-      <c r="M14" s="1">
+        <v>84.32898346466456</v>
+      </c>
+      <c r="M14" s="3">
+        <v>39.18079463334893</v>
+      </c>
+      <c r="N14" s="3">
+        <v>11.52676430516467</v>
+      </c>
+      <c r="O14" s="3">
+        <v>195.6882025465182</v>
+      </c>
+      <c r="P14" s="1">
         <v>21647</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14" s="1">
         <v>161.544776119403</v>
       </c>
-      <c r="O14">
+      <c r="R14" s="1">
+        <v>147.3429131999576</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>612</v>
+      </c>
+      <c r="U14">
         <v>2016</v>
       </c>
-      <c r="P14">
+      <c r="V14">
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
         <v>105</v>
@@ -1245,27 +1521,45 @@
         <v>133783.3671983447</v>
       </c>
       <c r="L15" s="3">
-        <v>107.8551914385913</v>
-      </c>
-      <c r="M15" s="1">
+        <v>83.48264574282582</v>
+      </c>
+      <c r="M15" s="3">
+        <v>40.20970245451376</v>
+      </c>
+      <c r="N15" s="3">
+        <v>21.00493274015408</v>
+      </c>
+      <c r="O15" s="3">
+        <v>247.2901437851162</v>
+      </c>
+      <c r="P15" s="1">
         <v>15979</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15" s="1">
         <v>159.79</v>
       </c>
-      <c r="O15">
+      <c r="R15" s="1">
+        <v>174.0035582476068</v>
+      </c>
+      <c r="S15" s="1">
+        <v>2</v>
+      </c>
+      <c r="T15" s="1">
+        <v>770</v>
+      </c>
+      <c r="U15">
         <v>2016</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>359</v>
@@ -1295,27 +1589,45 @@
         <v>157001.7996621037</v>
       </c>
       <c r="L16" s="3">
-        <v>95.05584770392593</v>
-      </c>
-      <c r="M16" s="1">
+        <v>83.64941179158359</v>
+      </c>
+      <c r="M16" s="3">
+        <v>36.99022540033587</v>
+      </c>
+      <c r="N16" s="3">
+        <v>16.18065842403185</v>
+      </c>
+      <c r="O16" s="3">
+        <v>254.2443749773306</v>
+      </c>
+      <c r="P16" s="1">
         <v>56061</v>
       </c>
-      <c r="N16" s="1">
+      <c r="Q16" s="1">
         <v>159.7179487179487</v>
       </c>
-      <c r="O16">
+      <c r="R16" s="1">
+        <v>183.1544319258093</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1540</v>
+      </c>
+      <c r="U16">
         <v>2016</v>
       </c>
-      <c r="P16">
+      <c r="V16">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>66</v>
@@ -1345,27 +1657,45 @@
         <v>708972.7845446636</v>
       </c>
       <c r="L17" s="3">
-        <v>79.29010140385255</v>
-      </c>
-      <c r="M17" s="1">
+        <v>70.93306185876429</v>
+      </c>
+      <c r="M17" s="3">
+        <v>30.19803349932243</v>
+      </c>
+      <c r="N17" s="3">
+        <v>20.33774597757668</v>
+      </c>
+      <c r="O17" s="3">
+        <v>159.7763429092917</v>
+      </c>
+      <c r="P17" s="1">
         <v>17912</v>
       </c>
-      <c r="N17" s="1">
+      <c r="Q17" s="1">
         <v>275.5692307692308</v>
       </c>
-      <c r="O17">
+      <c r="R17" s="1">
+        <v>975.3935739169402</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>7954</v>
+      </c>
+      <c r="U17">
         <v>2018</v>
       </c>
-      <c r="P17">
+      <c r="V17">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>436</v>
@@ -1395,27 +1725,45 @@
         <v>708972.7845446636</v>
       </c>
       <c r="L18" s="3">
-        <v>93.84286760867113</v>
-      </c>
-      <c r="M18" s="1">
+        <v>76.84102373029619</v>
+      </c>
+      <c r="M18" s="3">
+        <v>33.37177139781743</v>
+      </c>
+      <c r="N18" s="3">
+        <v>16.18065842403185</v>
+      </c>
+      <c r="O18" s="3">
+        <v>226.5579622472015</v>
+      </c>
+      <c r="P18" s="1">
         <v>72275</v>
       </c>
-      <c r="N18" s="1">
+      <c r="Q18" s="1">
         <v>170.8628841607565</v>
       </c>
-      <c r="O18">
+      <c r="R18" s="1">
+        <v>457.1568742729124</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>7954</v>
+      </c>
+      <c r="U18">
         <v>2016</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>14</v>
@@ -1445,27 +1793,45 @@
         <v>50948.85698737125</v>
       </c>
       <c r="L19" s="3">
-        <v>89.1267344852567</v>
-      </c>
-      <c r="M19" s="1">
+        <v>79.19230719197579</v>
+      </c>
+      <c r="M19" s="3">
+        <v>27.01736191709247</v>
+      </c>
+      <c r="N19" s="3">
+        <v>40.63189862969614</v>
+      </c>
+      <c r="O19" s="3">
+        <v>130.9739254174068</v>
+      </c>
+      <c r="P19" s="1">
         <v>1608</v>
       </c>
-      <c r="N19" s="1">
+      <c r="Q19" s="1">
         <v>114.8571428571429</v>
       </c>
-      <c r="O19">
+      <c r="R19" s="1">
+        <v>143.8139060050855</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>467</v>
+      </c>
+      <c r="U19">
         <v>2016</v>
       </c>
-      <c r="P19">
+      <c r="V19">
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>684</v>
@@ -1495,27 +1861,45 @@
         <v>708972.7845446636</v>
       </c>
       <c r="L20" s="3">
-        <v>93.05249603932496</v>
-      </c>
-      <c r="M20" s="1">
+        <v>78.67160937524555</v>
+      </c>
+      <c r="M20" s="3">
+        <v>39.22105185666557</v>
+      </c>
+      <c r="N20" s="3">
+        <v>14.90596347946683</v>
+      </c>
+      <c r="O20" s="3">
+        <v>461.5197709071476</v>
+      </c>
+      <c r="P20" s="1">
         <v>114874</v>
       </c>
-      <c r="N20" s="1">
+      <c r="Q20" s="1">
         <v>170.6894502228826</v>
       </c>
-      <c r="O20">
+      <c r="R20" s="1">
+        <v>402.3874992420548</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>7954</v>
+      </c>
+      <c r="U20">
         <v>2016</v>
       </c>
-      <c r="P20">
+      <c r="V20">
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>105</v>
@@ -1545,27 +1929,45 @@
         <v>475290.9541363961</v>
       </c>
       <c r="L21" s="3">
-        <v>81.91974458046401</v>
-      </c>
-      <c r="M21" s="1">
+        <v>69.51944033042635</v>
+      </c>
+      <c r="M21" s="3">
+        <v>28.22546328675653</v>
+      </c>
+      <c r="N21" s="3">
+        <v>17.82064921105857</v>
+      </c>
+      <c r="O21" s="3">
+        <v>196.4212117364618</v>
+      </c>
+      <c r="P21" s="1">
         <v>16826</v>
       </c>
-      <c r="N21" s="1">
+      <c r="Q21" s="1">
         <v>163.3592233009709</v>
       </c>
-      <c r="O21">
+      <c r="R21" s="1">
+        <v>448.9315388299796</v>
+      </c>
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>4584</v>
+      </c>
+      <c r="U21">
         <v>2017</v>
       </c>
-      <c r="P21">
+      <c r="V21">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
         <v>212</v>
@@ -1595,18 +1997,36 @@
         <v>200069.5140664897</v>
       </c>
       <c r="L22" s="3">
-        <v>78.3393122619878</v>
-      </c>
-      <c r="M22" s="1">
+        <v>74.35971583315494</v>
+      </c>
+      <c r="M22" s="3">
+        <v>27.7214279498591</v>
+      </c>
+      <c r="N22" s="3">
+        <v>17.83984513748501</v>
+      </c>
+      <c r="O22" s="3">
+        <v>156.0426904908593</v>
+      </c>
+      <c r="P22" s="1">
         <v>26828</v>
       </c>
-      <c r="N22" s="1">
+      <c r="Q22" s="1">
         <v>127.1469194312796</v>
       </c>
-      <c r="O22">
+      <c r="R22" s="1">
+        <v>190.7586913141665</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1879</v>
+      </c>
+      <c r="U22">
         <v>2016</v>
       </c>
-      <c r="P22">
+      <c r="V22">
         <v>2023</v>
       </c>
     </row>

--- a/analises/2023/analise_descritiva/dados/flex-mencoes.xlsx
+++ b/analises/2023/analise_descritiva/dados/flex-mencoes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>modalidade</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -508,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,14 +542,19 @@
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -601,13 +621,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>104</v>
@@ -622,60 +657,75 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
+        <v>1627655.726232675</v>
+      </c>
+      <c r="H2" s="3">
+        <v>15650.53582916034</v>
+      </c>
+      <c r="I2" s="3">
+        <v>26036.27005826416</v>
+      </c>
+      <c r="J2" s="3">
+        <v>28.00657698687211</v>
+      </c>
+      <c r="K2" s="3">
+        <v>156813.3168190974</v>
+      </c>
+      <c r="L2" s="3">
         <v>2320567.946086433</v>
       </c>
-      <c r="H2" s="3">
+      <c r="M2" s="3">
         <v>22313.15332775416</v>
       </c>
-      <c r="I2" s="3">
+      <c r="N2" s="3">
         <v>59701.58775725395</v>
       </c>
-      <c r="J2" s="3">
+      <c r="O2" s="3">
         <v>458.9251020152481</v>
       </c>
-      <c r="K2" s="3">
+      <c r="P2" s="3">
         <v>442290.1113560894</v>
       </c>
-      <c r="L2" s="3">
+      <c r="Q2" s="3">
         <v>76.06649705332148</v>
       </c>
-      <c r="M2" s="3">
+      <c r="R2" s="3">
         <v>30.35289755311455</v>
       </c>
-      <c r="N2" s="3">
+      <c r="S2" s="3">
         <v>30.69891629110986</v>
       </c>
-      <c r="O2" s="3">
+      <c r="T2" s="3">
         <v>216.9152091005833</v>
       </c>
-      <c r="P2" s="1">
+      <c r="U2" s="1">
         <v>22989</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="V2" s="1">
         <v>221.0480769230769</v>
       </c>
-      <c r="R2" s="1">
+      <c r="W2" s="1">
         <v>410.5455139511234</v>
       </c>
-      <c r="S2" s="1">
+      <c r="X2" s="1">
         <v>14</v>
       </c>
-      <c r="T2" s="1">
+      <c r="Y2" s="1">
         <v>3474</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <v>2017</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>175</v>
@@ -690,60 +740,75 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
+        <v>1966865.562750044</v>
+      </c>
+      <c r="H3" s="3">
+        <v>11239.23178714311</v>
+      </c>
+      <c r="I3" s="3">
+        <v>11553.66102772423</v>
+      </c>
+      <c r="J3" s="3">
+        <v>46.55761904502517</v>
+      </c>
+      <c r="K3" s="3">
+        <v>75172.676497433</v>
+      </c>
+      <c r="L3" s="3">
         <v>2409594.202473221</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="3">
         <v>13769.10972841841</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>21333.70082549344</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>313.2716886535385</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>121747.7984910872</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>82.12933179093685</v>
       </c>
-      <c r="M3" s="3">
+      <c r="R3" s="3">
         <v>35.40469491555042</v>
       </c>
-      <c r="N3" s="3">
+      <c r="S3" s="3">
         <v>33.97203328414528</v>
       </c>
-      <c r="O3" s="3">
+      <c r="T3" s="3">
         <v>230.5829516876651</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>26122</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>149.2685714285714</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>174.8393084425899</v>
       </c>
-      <c r="S3" s="1">
+      <c r="X3" s="1">
         <v>6</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Y3" s="1">
         <v>1540</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2016</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>568</v>
@@ -758,60 +823,75 @@
         <v>0.9612676056338029</v>
       </c>
       <c r="G4" s="3">
-        <v>7688166.013623439</v>
+        <v>7164961.909568957</v>
       </c>
       <c r="H4" s="3">
+        <v>13122.6408600164</v>
+      </c>
+      <c r="I4" s="3">
+        <v>16624.402279597</v>
+      </c>
+      <c r="J4" s="3">
+        <v>12.57978139186038</v>
+      </c>
+      <c r="K4" s="3">
+        <v>147790.8327903106</v>
+      </c>
+      <c r="L4" s="3">
+        <v>7688166.013623437</v>
+      </c>
+      <c r="M4" s="3">
         <v>14080.89013484146</v>
       </c>
-      <c r="I4" s="3">
+      <c r="N4" s="3">
         <v>20311.27316159155</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="3">
         <v>11.93343625774652</v>
       </c>
-      <c r="K4" s="3">
+      <c r="P4" s="3">
         <v>133707.589878108</v>
       </c>
-      <c r="L4" s="3">
+      <c r="Q4" s="3">
         <v>84.02563974325884</v>
       </c>
-      <c r="M4" s="3">
-        <v>39.83943189124467</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="R4" s="3">
+        <v>39.83943189124468</v>
+      </c>
+      <c r="S4" s="3">
         <v>11.52676430516467</v>
       </c>
-      <c r="O4" s="3">
+      <c r="T4" s="3">
         <v>254.2443749773306</v>
       </c>
-      <c r="P4" s="1">
+      <c r="U4" s="1">
         <v>77527</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>141.9908424908425</v>
       </c>
-      <c r="R4" s="1">
+      <c r="W4" s="1">
         <v>155.4234048603088</v>
       </c>
-      <c r="S4" s="1">
+      <c r="X4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="1">
+      <c r="Y4" s="1">
         <v>1330</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>2016</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>207</v>
@@ -826,60 +906,75 @@
         <v>0.9855072463768116</v>
       </c>
       <c r="G5" s="3">
+        <v>2475605.964845285</v>
+      </c>
+      <c r="H5" s="3">
+        <v>12135.32335708473</v>
+      </c>
+      <c r="I5" s="3">
+        <v>12326.32259752921</v>
+      </c>
+      <c r="J5" s="3">
+        <v>12.04441558726698</v>
+      </c>
+      <c r="K5" s="3">
+        <v>65889.72988780696</v>
+      </c>
+      <c r="L5" s="3">
         <v>3236637.615839871</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="3">
         <v>15865.87066588172</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="3">
         <v>25100.55603426701</v>
       </c>
-      <c r="J5" s="3">
+      <c r="O5" s="3">
         <v>45.24330449308393</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="3">
         <v>200069.5140664897</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="3">
         <v>83.58617223970138</v>
       </c>
-      <c r="M5" s="3">
+      <c r="R5" s="3">
         <v>40.20112754081283</v>
       </c>
-      <c r="N5" s="3">
+      <c r="S5" s="3">
         <v>16.05922078302265</v>
       </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
         <v>386.987447085286</v>
       </c>
-      <c r="P5" s="1">
+      <c r="U5" s="1">
         <v>35001</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="V5" s="1">
         <v>171.5735294117647</v>
       </c>
-      <c r="R5" s="1">
+      <c r="W5" s="1">
         <v>248.1423584049538</v>
       </c>
-      <c r="S5" s="1">
+      <c r="X5" s="1">
         <v>2</v>
       </c>
-      <c r="T5" s="1">
+      <c r="Y5" s="1">
         <v>2120</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <v>2016</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>326</v>
@@ -894,60 +989,75 @@
         <v>0.9754601226993865</v>
       </c>
       <c r="G6" s="3">
+        <v>4012524.770926306</v>
+      </c>
+      <c r="H6" s="3">
+        <v>12618.00242429656</v>
+      </c>
+      <c r="I6" s="3">
+        <v>15633.07213510835</v>
+      </c>
+      <c r="J6" s="3">
+        <v>12.32590665307678</v>
+      </c>
+      <c r="K6" s="3">
+        <v>83151.82469725677</v>
+      </c>
+      <c r="L6" s="3">
         <v>5740597.022146388</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="3">
         <v>18052.1918935421</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>45474.46746319437</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="3">
         <v>43.14189436787808</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="3">
         <v>83.40563308192627</v>
       </c>
-      <c r="M6" s="3">
+      <c r="R6" s="3">
         <v>32.56399533953332</v>
       </c>
-      <c r="N6" s="3">
+      <c r="S6" s="3">
         <v>18.47818326605706</v>
       </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
         <v>195.20880750356</v>
       </c>
-      <c r="P6" s="1">
+      <c r="U6" s="1">
         <v>62425</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="V6" s="1">
         <v>196.3050314465409</v>
       </c>
-      <c r="R6" s="1">
+      <c r="W6" s="1">
         <v>501.9791222296157</v>
       </c>
-      <c r="S6" s="1">
+      <c r="X6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Y6" s="1">
         <v>7954</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <v>2016</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>352</v>
@@ -962,60 +1072,75 @@
         <v>0.9602272727272727</v>
       </c>
       <c r="G7" s="3">
+        <v>4273287.178382501</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12642.86147450444</v>
+      </c>
+      <c r="I7" s="3">
+        <v>17833.50233334343</v>
+      </c>
+      <c r="J7" s="3">
+        <v>12.04441558726698</v>
+      </c>
+      <c r="K7" s="3">
+        <v>198811.9434626772</v>
+      </c>
+      <c r="L7" s="3">
         <v>5288513.608068768</v>
       </c>
-      <c r="H7" s="3">
+      <c r="M7" s="3">
         <v>15646.4899647005</v>
       </c>
-      <c r="I7" s="3">
+      <c r="N7" s="3">
         <v>42686.00050640347</v>
       </c>
-      <c r="J7" s="3">
+      <c r="O7" s="3">
         <v>10.77163914429046</v>
       </c>
-      <c r="K7" s="3">
+      <c r="P7" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Q7" s="3">
         <v>77.97569054482099</v>
       </c>
-      <c r="M7" s="3">
+      <c r="R7" s="3">
         <v>35.65744130420693</v>
       </c>
-      <c r="N7" s="3">
+      <c r="S7" s="3">
         <v>10.77163914429046</v>
       </c>
-      <c r="O7" s="3">
+      <c r="T7" s="3">
         <v>195.6882025465182</v>
       </c>
-      <c r="P7" s="1">
+      <c r="U7" s="1">
         <v>57812</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="V7" s="1">
         <v>171.0414201183432</v>
       </c>
-      <c r="R7" s="1">
-        <v>459.3640728169867</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="W7" s="1">
+        <v>459.3640728169868</v>
+      </c>
+      <c r="X7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="1">
+      <c r="Y7" s="1">
         <v>7954</v>
       </c>
-      <c r="U7">
+      <c r="Z7">
         <v>2016</v>
       </c>
-      <c r="V7">
+      <c r="AA7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>147</v>
@@ -1030,60 +1155,75 @@
         <v>0.9659863945578231</v>
       </c>
       <c r="G8" s="3">
+        <v>1836323.937192945</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12931.85871262637</v>
+      </c>
+      <c r="I8" s="3">
+        <v>16439.70741974664</v>
+      </c>
+      <c r="J8" s="3">
+        <v>14.640214143956</v>
+      </c>
+      <c r="K8" s="3">
+        <v>79534.67370563619</v>
+      </c>
+      <c r="L8" s="3">
         <v>2717366.997010607</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>19136.3873028916</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>63151.49512725792</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>39.62898446130542</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Q8" s="3">
         <v>77.73968420752422</v>
       </c>
-      <c r="M8" s="3">
+      <c r="R8" s="3">
         <v>41.30988410144955</v>
       </c>
-      <c r="N8" s="3">
+      <c r="S8" s="3">
         <v>12.19662302883409</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>247.2901437851162</v>
       </c>
-      <c r="P8" s="1">
+      <c r="U8" s="1">
         <v>28881</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="V8" s="1">
         <v>203.387323943662</v>
       </c>
-      <c r="R8" s="1">
+      <c r="W8" s="1">
         <v>685.9026443808731</v>
       </c>
-      <c r="S8" s="1">
+      <c r="X8" s="1">
         <v>2</v>
       </c>
-      <c r="T8" s="1">
+      <c r="Y8" s="1">
         <v>7954</v>
       </c>
-      <c r="U8">
+      <c r="Z8">
         <v>2016</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>291</v>
@@ -1098,60 +1238,75 @@
         <v>0.979381443298969</v>
       </c>
       <c r="G9" s="3">
+        <v>2973554.326478445</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10433.52395255595</v>
+      </c>
+      <c r="I9" s="3">
+        <v>13865.18977273101</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12.32590665307678</v>
+      </c>
+      <c r="K9" s="3">
+        <v>83151.82469725677</v>
+      </c>
+      <c r="L9" s="3">
         <v>5086973.708613019</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>17849.03055653691</v>
       </c>
-      <c r="I9" s="3">
-        <v>48299.82963154622</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
+        <v>48299.82963154621</v>
+      </c>
+      <c r="O9" s="3">
         <v>55.43454979817118</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
         <v>81.75853347173708</v>
       </c>
-      <c r="M9" s="3">
+      <c r="R9" s="3">
         <v>38.14520603080047</v>
       </c>
-      <c r="N9" s="3">
+      <c r="S9" s="3">
         <v>18.47818326605706</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>234.707661751482</v>
       </c>
-      <c r="P9" s="1">
+      <c r="U9" s="1">
         <v>53156</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="V9" s="1">
         <v>186.5122807017544</v>
       </c>
-      <c r="R9" s="1">
+      <c r="W9" s="1">
         <v>508.76757749687</v>
       </c>
-      <c r="S9" s="1">
+      <c r="X9" s="1">
         <v>2</v>
       </c>
-      <c r="T9" s="1">
+      <c r="Y9" s="1">
         <v>7954</v>
       </c>
-      <c r="U9">
+      <c r="Z9">
         <v>2016</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>354</v>
@@ -1166,60 +1321,75 @@
         <v>0.9689265536723164</v>
       </c>
       <c r="G10" s="3">
+        <v>4104677.353309297</v>
+      </c>
+      <c r="H10" s="3">
+        <v>11966.98936824868</v>
+      </c>
+      <c r="I10" s="3">
+        <v>14518.46629395926</v>
+      </c>
+      <c r="J10" s="3">
+        <v>12.04441558726698</v>
+      </c>
+      <c r="K10" s="3">
+        <v>83151.82469725677</v>
+      </c>
+      <c r="L10" s="3">
         <v>5497521.583966777</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>16027.75972001976</v>
       </c>
-      <c r="I10" s="3">
+      <c r="N10" s="3">
         <v>26716.10249657132</v>
       </c>
-      <c r="J10" s="3">
+      <c r="O10" s="3">
         <v>11.93343625774652</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>203551.2237166158</v>
       </c>
-      <c r="L10" s="3">
-        <v>82.92407682444032</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
+        <v>82.92407682444035</v>
+      </c>
+      <c r="R10" s="3">
         <v>38.77988334228132</v>
       </c>
-      <c r="N10" s="3">
+      <c r="S10" s="3">
         <v>11.93343625774652</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>230.5829516876651</v>
       </c>
-      <c r="P10" s="1">
+      <c r="U10" s="1">
         <v>56601</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="V10" s="1">
         <v>165.0174927113703</v>
       </c>
-      <c r="R10" s="1">
+      <c r="W10" s="1">
         <v>247.246130032236</v>
       </c>
-      <c r="S10" s="1">
+      <c r="X10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="1">
+      <c r="Y10" s="1">
         <v>2684</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
         <v>2016</v>
       </c>
-      <c r="V10">
+      <c r="AA10">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>168</v>
@@ -1234,60 +1404,75 @@
         <v>1</v>
       </c>
       <c r="G11" s="3">
+        <v>1837324.495871012</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10936.45533256555</v>
+      </c>
+      <c r="I11" s="3">
+        <v>20915.66900541847</v>
+      </c>
+      <c r="J11" s="3">
+        <v>14.640214143956</v>
+      </c>
+      <c r="K11" s="3">
+        <v>156813.3168190974</v>
+      </c>
+      <c r="L11" s="3">
         <v>2754078.500861851</v>
       </c>
-      <c r="H11" s="3">
+      <c r="M11" s="3">
         <v>16393.32440989197</v>
       </c>
-      <c r="I11" s="3">
+      <c r="N11" s="3">
         <v>47599.92946885034</v>
       </c>
-      <c r="J11" s="3">
+      <c r="O11" s="3">
         <v>105.5677104838625</v>
       </c>
-      <c r="K11" s="3">
+      <c r="P11" s="3">
         <v>442290.1113560894</v>
       </c>
-      <c r="L11" s="3">
+      <c r="Q11" s="3">
         <v>71.78666858221021</v>
       </c>
-      <c r="M11" s="3">
+      <c r="R11" s="3">
         <v>29.97870848948209</v>
       </c>
-      <c r="N11" s="3">
+      <c r="S11" s="3">
         <v>16.18065842403185</v>
       </c>
-      <c r="O11" s="3">
+      <c r="T11" s="3">
         <v>216.9152091005833</v>
       </c>
-      <c r="P11" s="1">
+      <c r="U11" s="1">
         <v>29915</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="V11" s="1">
         <v>178.0654761904762</v>
       </c>
-      <c r="R11" s="1">
+      <c r="W11" s="1">
         <v>331.1306730481258</v>
       </c>
-      <c r="S11" s="1">
+      <c r="X11" s="1">
         <v>3</v>
       </c>
-      <c r="T11" s="1">
+      <c r="Y11" s="1">
         <v>3474</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
         <v>2016</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>168</v>
@@ -1302,60 +1487,75 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
+        <v>1837324.495871012</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10936.45533256555</v>
+      </c>
+      <c r="I12" s="3">
+        <v>20915.66900541847</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14.640214143956</v>
+      </c>
+      <c r="K12" s="3">
+        <v>156813.3168190974</v>
+      </c>
+      <c r="L12" s="3">
         <v>2754078.500861851</v>
       </c>
-      <c r="H12" s="3">
+      <c r="M12" s="3">
         <v>16393.32440989197</v>
       </c>
-      <c r="I12" s="3">
+      <c r="N12" s="3">
         <v>47599.92946885034</v>
       </c>
-      <c r="J12" s="3">
+      <c r="O12" s="3">
         <v>105.5677104838625</v>
       </c>
-      <c r="K12" s="3">
+      <c r="P12" s="3">
         <v>442290.1113560894</v>
       </c>
-      <c r="L12" s="3">
+      <c r="Q12" s="3">
         <v>71.78666858221021</v>
       </c>
-      <c r="M12" s="3">
+      <c r="R12" s="3">
         <v>29.97870848948209</v>
       </c>
-      <c r="N12" s="3">
+      <c r="S12" s="3">
         <v>16.18065842403185</v>
       </c>
-      <c r="O12" s="3">
+      <c r="T12" s="3">
         <v>216.9152091005833</v>
       </c>
-      <c r="P12" s="1">
+      <c r="U12" s="1">
         <v>29915</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="V12" s="1">
         <v>178.0654761904762</v>
       </c>
-      <c r="R12" s="1">
+      <c r="W12" s="1">
         <v>331.1306730481258</v>
       </c>
-      <c r="S12" s="1">
+      <c r="X12" s="1">
         <v>3</v>
       </c>
-      <c r="T12" s="1">
+      <c r="Y12" s="1">
         <v>3474</v>
       </c>
-      <c r="U12">
+      <c r="Z12">
         <v>2016</v>
       </c>
-      <c r="V12">
+      <c r="AA12">
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>321</v>
@@ -1370,60 +1570,75 @@
         <v>0.9813084112149533</v>
       </c>
       <c r="G13" s="3">
+        <v>3595121.439723678</v>
+      </c>
+      <c r="H13" s="3">
+        <v>11413.08393563072</v>
+      </c>
+      <c r="I13" s="3">
+        <v>15769.5459568574</v>
+      </c>
+      <c r="J13" s="3">
+        <v>23.98859826184044</v>
+      </c>
+      <c r="K13" s="3">
+        <v>147790.8327903106</v>
+      </c>
+      <c r="L13" s="3">
         <v>4647973.179040875</v>
       </c>
-      <c r="H13" s="3">
+      <c r="M13" s="3">
         <v>14755.47040965357</v>
       </c>
-      <c r="I13" s="3">
+      <c r="N13" s="3">
         <v>32882.79851921128</v>
       </c>
-      <c r="J13" s="3">
+      <c r="O13" s="3">
         <v>40.21627066051904</v>
       </c>
-      <c r="K13" s="3">
+      <c r="P13" s="3">
         <v>475290.9541363961</v>
       </c>
-      <c r="L13" s="3">
+      <c r="Q13" s="3">
         <v>79.12786981308152</v>
       </c>
-      <c r="M13" s="3">
+      <c r="R13" s="3">
         <v>35.35639160943987</v>
       </c>
-      <c r="N13" s="3">
+      <c r="S13" s="3">
         <v>20.51363271354002</v>
       </c>
-      <c r="O13" s="3">
+      <c r="T13" s="3">
         <v>233.3973531230909</v>
       </c>
-      <c r="P13" s="1">
+      <c r="U13" s="1">
         <v>52310</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="V13" s="1">
         <v>166.0634920634921</v>
       </c>
-      <c r="R13" s="1">
+      <c r="W13" s="1">
         <v>328.5928536530323</v>
       </c>
-      <c r="S13" s="1">
+      <c r="X13" s="1">
         <v>1</v>
       </c>
-      <c r="T13" s="1">
+      <c r="Y13" s="1">
         <v>4584</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
         <v>2016</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
         <v>135</v>
@@ -1438,60 +1653,75 @@
         <v>0.9925925925925926</v>
       </c>
       <c r="G14" s="3">
+        <v>2336984.915124591</v>
+      </c>
+      <c r="H14" s="3">
+        <v>17440.1859337656</v>
+      </c>
+      <c r="I14" s="3">
+        <v>23749.73294432216</v>
+      </c>
+      <c r="J14" s="3">
+        <v>12.32590665307678</v>
+      </c>
+      <c r="K14" s="3">
+        <v>198811.9434626772</v>
+      </c>
+      <c r="L14" s="3">
         <v>2141898.624162417</v>
       </c>
-      <c r="H14" s="3">
+      <c r="M14" s="3">
         <v>15984.31809076431</v>
       </c>
-      <c r="I14" s="3">
+      <c r="N14" s="3">
         <v>20504.03705709762</v>
       </c>
-      <c r="J14" s="3">
+      <c r="O14" s="3">
         <v>23.05352861032933</v>
       </c>
-      <c r="K14" s="3">
+      <c r="P14" s="3">
         <v>103442.8700368614</v>
       </c>
-      <c r="L14" s="3">
+      <c r="Q14" s="3">
         <v>84.32898346466456</v>
       </c>
-      <c r="M14" s="3">
+      <c r="R14" s="3">
         <v>39.18079463334893</v>
       </c>
-      <c r="N14" s="3">
+      <c r="S14" s="3">
         <v>11.52676430516467</v>
       </c>
-      <c r="O14" s="3">
+      <c r="T14" s="3">
         <v>195.6882025465182</v>
       </c>
-      <c r="P14" s="1">
+      <c r="U14" s="1">
         <v>21647</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="V14" s="1">
         <v>161.544776119403</v>
       </c>
-      <c r="R14" s="1">
+      <c r="W14" s="1">
         <v>147.3429131999576</v>
       </c>
-      <c r="S14" s="1">
+      <c r="X14" s="1">
         <v>1</v>
       </c>
-      <c r="T14" s="1">
+      <c r="Y14" s="1">
         <v>612</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
         <v>2016</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <v>105</v>
@@ -1506,60 +1736,75 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="G15" s="3">
-        <v>1723418.10399725</v>
+        <v>1739473.26899379</v>
       </c>
       <c r="H15" s="3">
-        <v>17234.1810399725</v>
+        <v>17394.7326899379</v>
       </c>
       <c r="I15" s="3">
-        <v>24079.22784630624</v>
+        <v>19845.53832584787</v>
       </c>
       <c r="J15" s="3">
+        <v>15.83473208467613</v>
+      </c>
+      <c r="K15" s="3">
+        <v>72793.96117225378</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1723418.103997251</v>
+      </c>
+      <c r="M15" s="3">
+        <v>17234.18103997251</v>
+      </c>
+      <c r="N15" s="3">
+        <v>24079.22784630625</v>
+      </c>
+      <c r="O15" s="3">
         <v>42.00986548030816</v>
       </c>
-      <c r="K15" s="3">
+      <c r="P15" s="3">
         <v>133783.3671983447</v>
       </c>
-      <c r="L15" s="3">
-        <v>83.48264574282582</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="Q15" s="3">
+        <v>83.48264574282581</v>
+      </c>
+      <c r="R15" s="3">
         <v>40.20970245451376</v>
       </c>
-      <c r="N15" s="3">
+      <c r="S15" s="3">
         <v>21.00493274015408</v>
       </c>
-      <c r="O15" s="3">
+      <c r="T15" s="3">
         <v>247.2901437851162</v>
       </c>
-      <c r="P15" s="1">
+      <c r="U15" s="1">
         <v>15979</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="V15" s="1">
         <v>159.79</v>
       </c>
-      <c r="R15" s="1">
+      <c r="W15" s="1">
         <v>174.0035582476068</v>
       </c>
-      <c r="S15" s="1">
+      <c r="X15" s="1">
         <v>2</v>
       </c>
-      <c r="T15" s="1">
+      <c r="Y15" s="1">
         <v>770</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
         <v>2016</v>
       </c>
-      <c r="V15">
+      <c r="AA15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1">
         <v>359</v>
@@ -1574,60 +1819,75 @@
         <v>0.9777158774373259</v>
       </c>
       <c r="G16" s="3">
+        <v>4549306.422358995</v>
+      </c>
+      <c r="H16" s="3">
+        <v>12960.98695828774</v>
+      </c>
+      <c r="I16" s="3">
+        <v>16685.328658872</v>
+      </c>
+      <c r="J16" s="3">
+        <v>18.81759801829169</v>
+      </c>
+      <c r="K16" s="3">
+        <v>147790.8327903106</v>
+      </c>
+      <c r="L16" s="3">
         <v>5328925.878129791</v>
       </c>
-      <c r="H16" s="3">
+      <c r="M16" s="3">
         <v>15182.12500891678</v>
       </c>
-      <c r="I16" s="3">
+      <c r="N16" s="3">
         <v>21474.71883631779</v>
       </c>
-      <c r="J16" s="3">
+      <c r="O16" s="3">
         <v>28.49210492799546</v>
       </c>
-      <c r="K16" s="3">
+      <c r="P16" s="3">
         <v>157001.7996621037</v>
       </c>
-      <c r="L16" s="3">
+      <c r="Q16" s="3">
         <v>83.64941179158359</v>
       </c>
-      <c r="M16" s="3">
+      <c r="R16" s="3">
         <v>36.99022540033587</v>
       </c>
-      <c r="N16" s="3">
+      <c r="S16" s="3">
         <v>16.18065842403185</v>
       </c>
-      <c r="O16" s="3">
+      <c r="T16" s="3">
         <v>254.2443749773306</v>
       </c>
-      <c r="P16" s="1">
+      <c r="U16" s="1">
         <v>56061</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="V16" s="1">
         <v>159.7179487179487</v>
       </c>
-      <c r="R16" s="1">
-        <v>183.1544319258093</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="W16" s="1">
+        <v>183.1544319258094</v>
+      </c>
+      <c r="X16" s="1">
         <v>1</v>
       </c>
-      <c r="T16" s="1">
+      <c r="Y16" s="1">
         <v>1540</v>
       </c>
-      <c r="U16">
+      <c r="Z16">
         <v>2016</v>
       </c>
-      <c r="V16">
+      <c r="AA16">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1">
         <v>66</v>
@@ -1642,60 +1902,75 @@
         <v>0.9848484848484849</v>
       </c>
       <c r="G17" s="3">
+        <v>823579.748189041</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12670.45766444679</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14828.5982116821</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12.32590665307678</v>
+      </c>
+      <c r="K17" s="3">
+        <v>79534.67370563619</v>
+      </c>
+      <c r="L17" s="3">
         <v>1420244.296345807</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>21849.91225147395</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>87169.6152740344</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>100.535340323175</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3">
         <v>70.93306185876429</v>
       </c>
-      <c r="M17" s="3">
+      <c r="R17" s="3">
         <v>30.19803349932243</v>
       </c>
-      <c r="N17" s="3">
+      <c r="S17" s="3">
         <v>20.33774597757668</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>159.7763429092917</v>
       </c>
-      <c r="P17" s="1">
+      <c r="U17" s="1">
         <v>17912</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="V17" s="1">
         <v>275.5692307692308</v>
       </c>
-      <c r="R17" s="1">
-        <v>975.3935739169402</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="W17" s="1">
+        <v>975.3935739169403</v>
+      </c>
+      <c r="X17" s="1">
         <v>3</v>
       </c>
-      <c r="T17" s="1">
+      <c r="Y17" s="1">
         <v>7954</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
         <v>2018</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1">
         <v>436</v>
@@ -1710,60 +1985,75 @@
         <v>0.9701834862385321</v>
       </c>
       <c r="G18" s="3">
+        <v>5349403.982984601</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12646.34511343877</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20087.10848810945</v>
+      </c>
+      <c r="J18" s="3">
+        <v>12.32590665307678</v>
+      </c>
+      <c r="K18" s="3">
+        <v>198811.9434626772</v>
+      </c>
+      <c r="L18" s="3">
         <v>6782493.256416705</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>16034.26301753358</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>48218.36652844157</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>42.00986548030816</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="L18" s="3">
-        <v>76.84102373029619</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
+        <v>76.84102373029617</v>
+      </c>
+      <c r="R18" s="3">
         <v>33.37177139781743</v>
       </c>
-      <c r="N18" s="3">
+      <c r="S18" s="3">
         <v>16.18065842403185</v>
       </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
         <v>226.5579622472015</v>
       </c>
-      <c r="P18" s="1">
+      <c r="U18" s="1">
         <v>72275</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="V18" s="1">
         <v>170.8628841607565</v>
       </c>
-      <c r="R18" s="1">
+      <c r="W18" s="1">
         <v>457.1568742729124</v>
       </c>
-      <c r="S18" s="1">
+      <c r="X18" s="1">
         <v>1</v>
       </c>
-      <c r="T18" s="1">
+      <c r="Y18" s="1">
         <v>7954</v>
       </c>
-      <c r="U18">
+      <c r="Z18">
         <v>2016</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1">
         <v>14</v>
@@ -1778,60 +2068,75 @@
         <v>1</v>
       </c>
       <c r="G19" s="3">
+        <v>93523.75457894627</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6680.268184210448</v>
+      </c>
+      <c r="I19" s="3">
+        <v>8864.978372133348</v>
+      </c>
+      <c r="J19" s="3">
+        <v>18.81759801829169</v>
+      </c>
+      <c r="K19" s="3">
+        <v>25896.93397974484</v>
+      </c>
+      <c r="L19" s="3">
         <v>143315.7890522928</v>
       </c>
-      <c r="H19" s="3">
+      <c r="M19" s="3">
         <v>10236.84207516377</v>
       </c>
-      <c r="I19" s="3">
+      <c r="N19" s="3">
         <v>15061.8154940579</v>
       </c>
-      <c r="J19" s="3">
+      <c r="O19" s="3">
         <v>88.74552086502507</v>
       </c>
-      <c r="K19" s="3">
+      <c r="P19" s="3">
         <v>50948.85698737125</v>
       </c>
-      <c r="L19" s="3">
-        <v>79.19230719197579</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="Q19" s="3">
+        <v>79.19230719197576</v>
+      </c>
+      <c r="R19" s="3">
         <v>27.01736191709247</v>
       </c>
-      <c r="N19" s="3">
+      <c r="S19" s="3">
         <v>40.63189862969614</v>
       </c>
-      <c r="O19" s="3">
+      <c r="T19" s="3">
         <v>130.9739254174068</v>
       </c>
-      <c r="P19" s="1">
+      <c r="U19" s="1">
         <v>1608</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="V19" s="1">
         <v>114.8571428571429</v>
       </c>
-      <c r="R19" s="1">
+      <c r="W19" s="1">
         <v>143.8139060050855</v>
       </c>
-      <c r="S19" s="1">
+      <c r="X19" s="1">
         <v>2</v>
       </c>
-      <c r="T19" s="1">
+      <c r="Y19" s="1">
         <v>467</v>
       </c>
-      <c r="U19">
+      <c r="Z19">
         <v>2016</v>
       </c>
-      <c r="V19">
+      <c r="AA19">
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
         <v>684</v>
@@ -1846,60 +2151,75 @@
         <v>0.9839181286549707</v>
       </c>
       <c r="G20" s="3">
+        <v>8128438.106405501</v>
+      </c>
+      <c r="H20" s="3">
+        <v>12077.91694859658</v>
+      </c>
+      <c r="I20" s="3">
+        <v>16927.05592030109</v>
+      </c>
+      <c r="J20" s="3">
+        <v>12.32590665307678</v>
+      </c>
+      <c r="K20" s="3">
+        <v>198811.9434626772</v>
+      </c>
+      <c r="L20" s="3">
         <v>10689312.43002142</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>15883.07939081934</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>41769.03302774523</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>29.81192695893366</v>
       </c>
-      <c r="K20" s="3">
+      <c r="P20" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="L20" s="3">
+      <c r="Q20" s="3">
         <v>78.67160937524555</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
         <v>39.22105185666557</v>
       </c>
-      <c r="N20" s="3">
+      <c r="S20" s="3">
         <v>14.90596347946683</v>
       </c>
-      <c r="O20" s="3">
+      <c r="T20" s="3">
         <v>461.5197709071476</v>
       </c>
-      <c r="P20" s="1">
+      <c r="U20" s="1">
         <v>114874</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="V20" s="1">
         <v>170.6894502228826</v>
       </c>
-      <c r="R20" s="1">
+      <c r="W20" s="1">
         <v>402.3874992420548</v>
       </c>
-      <c r="S20" s="1">
+      <c r="X20" s="1">
         <v>1</v>
       </c>
-      <c r="T20" s="1">
+      <c r="Y20" s="1">
         <v>7954</v>
       </c>
-      <c r="U20">
+      <c r="Z20">
         <v>2016</v>
       </c>
-      <c r="V20">
+      <c r="AA20">
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
         <v>105</v>
@@ -1914,60 +2234,75 @@
         <v>0.9809523809523809</v>
       </c>
       <c r="G21" s="3">
+        <v>971086.1804622735</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9428.021169536636</v>
+      </c>
+      <c r="I21" s="3">
+        <v>12401.4949883475</v>
+      </c>
+      <c r="J21" s="3">
+        <v>12.32590665307678</v>
+      </c>
+      <c r="K21" s="3">
+        <v>104444.8026155114</v>
+      </c>
+      <c r="L21" s="3">
         <v>1378381.622310888</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="3">
         <v>13382.34584767852</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>46750.77428825444</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3">
         <v>298.2574352235075</v>
       </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
         <v>475290.9541363961</v>
       </c>
-      <c r="L21" s="3">
+      <c r="Q21" s="3">
         <v>69.51944033042635</v>
       </c>
-      <c r="M21" s="3">
+      <c r="R21" s="3">
         <v>28.22546328675653</v>
       </c>
-      <c r="N21" s="3">
+      <c r="S21" s="3">
         <v>17.82064921105857</v>
       </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
         <v>196.4212117364618</v>
       </c>
-      <c r="P21" s="1">
+      <c r="U21" s="1">
         <v>16826</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="V21" s="1">
         <v>163.3592233009709</v>
       </c>
-      <c r="R21" s="1">
-        <v>448.9315388299796</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="W21" s="1">
+        <v>448.9315388299797</v>
+      </c>
+      <c r="X21" s="1">
         <v>4</v>
       </c>
-      <c r="T21" s="1">
+      <c r="Y21" s="1">
         <v>4584</v>
       </c>
-      <c r="U21">
+      <c r="Z21">
         <v>2017</v>
       </c>
-      <c r="V21">
+      <c r="AA21">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
         <v>212</v>
@@ -1982,51 +2317,66 @@
         <v>0.9952830188679245</v>
       </c>
       <c r="G22" s="3">
+        <v>2004675.643723474</v>
+      </c>
+      <c r="H22" s="3">
+        <v>9500.832434708409</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10686.05726234241</v>
+      </c>
+      <c r="J22" s="3">
+        <v>15.08110149769464</v>
+      </c>
+      <c r="K22" s="3">
+        <v>55186.13818663376</v>
+      </c>
+      <c r="L22" s="3">
         <v>2101687.069364609</v>
       </c>
-      <c r="H22" s="3">
-        <v>9960.602224476819</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
+        <v>9960.602224476821</v>
+      </c>
+      <c r="N22" s="3">
         <v>16847.67954790426</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="3">
         <v>35.53279454902379</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>200069.5140664897</v>
       </c>
-      <c r="L22" s="3">
+      <c r="Q22" s="3">
         <v>74.35971583315494</v>
       </c>
-      <c r="M22" s="3">
+      <c r="R22" s="3">
         <v>27.7214279498591</v>
       </c>
-      <c r="N22" s="3">
+      <c r="S22" s="3">
         <v>17.83984513748501</v>
       </c>
-      <c r="O22" s="3">
+      <c r="T22" s="3">
         <v>156.0426904908593</v>
       </c>
-      <c r="P22" s="1">
+      <c r="U22" s="1">
         <v>26828</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="V22" s="1">
         <v>127.1469194312796</v>
       </c>
-      <c r="R22" s="1">
+      <c r="W22" s="1">
         <v>190.7586913141665</v>
       </c>
-      <c r="S22" s="1">
+      <c r="X22" s="1">
         <v>1</v>
       </c>
-      <c r="T22" s="1">
+      <c r="Y22" s="1">
         <v>1879</v>
       </c>
-      <c r="U22">
+      <c r="Z22">
         <v>2016</v>
       </c>
-      <c r="V22">
+      <c r="AA22">
         <v>2023</v>
       </c>
     </row>
